--- a/data/trans_dic/P55_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,13 +514,16 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
-recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses</t>
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -507,16 +532,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -528,12 +556,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -543,6 +586,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -557,17 +603,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14,43%</t>
         </is>
       </c>
     </row>
@@ -580,17 +641,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>3,42; 32,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>7,2; 39,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>0,0; 15,87</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 25,55</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 19,94</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 26,05</t>
         </is>
       </c>
     </row>
@@ -607,17 +683,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
         </is>
       </c>
     </row>
@@ -630,17 +721,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>13,01; 69,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>6,31; 69,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>1,83; 16,67</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 14,69</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9,83; 47,85</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 47,04</t>
         </is>
       </c>
     </row>
@@ -657,17 +763,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
         </is>
       </c>
     </row>
@@ -680,17 +801,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>4,16; 22,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>7,63; 29,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>2,54; 12,26</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 14,05</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 13,93</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 18,23</t>
         </is>
       </c>
     </row>
@@ -707,17 +843,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
         </is>
       </c>
     </row>
@@ -730,17 +881,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>2,47; 14,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 7,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>5,93; 19,02</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 18,78</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 13,91</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 11,08</t>
         </is>
       </c>
     </row>
@@ -757,17 +923,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -780,17 +961,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>6,4; 22,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>2,76; 17,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>6,6; 28,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 11,18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 21,25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 10,56</t>
         </is>
       </c>
     </row>
@@ -807,17 +1003,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12,6%</t>
         </is>
       </c>
     </row>
@@ -830,17 +1041,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>0,0; 18,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>6,12; 31,68</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 52,32</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 22,5</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 33,82</t>
         </is>
       </c>
     </row>
@@ -857,17 +1083,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
         </is>
       </c>
     </row>
@@ -880,25 +1121,50 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,07; 28,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,75; 29,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,65; 12,78</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 18,54</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 18,42</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,36; 19,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -907,4 +1173,953 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,35%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14989</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24431</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6066</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14967</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21055</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39398</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4039; 38195</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9188; 50217</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18454</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3419; 37179</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7394; 46737</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17297; 71126</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>60950</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71880</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9520</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10531</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>70470</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82411</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19723; 106125</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14368; 157424</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2309; 21051</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2473; 23849</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27325; 133000</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25832; 183478</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16200</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29707</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11726</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17174</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27926</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46881</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5640; 30570</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13757; 53465</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5063; 24400</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6802; 33381</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15408; 46591</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27182; 76179</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11274</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18184</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22902</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>29458</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27485</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3854; 23225</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14362</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10039; 32191</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11379; 39962</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18219; 45281</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14063; 45889</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15810</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12117</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13559</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>29369</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14980</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7890; 28282</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4275; 27487</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5976; 25457</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15328</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17214; 45425</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5166; 30812</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5410</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17399</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>42634</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>22809</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>42634</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16395</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6585; 34099</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13114; 106796</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11041; 44494</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11826; 114431</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>124633</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>142717</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>76454</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>111073</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>201087</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>253790</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>78053; 217626</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>79457; 304669</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>53759; 103401</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>74566; 203820</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>146911; 291740</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>177760; 405267</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>